--- a/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="84">
   <si>
     <t>Advait, Athreya</t>
   </si>
@@ -84,208 +84,208 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Whiteson</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>3111 NatSci 2 #949/824-2471</t>
+  </si>
+  <si>
+    <t>3108 BioSci 3 #949/824-2341</t>
+  </si>
+  <si>
+    <t>440 F Rowland Hall #949/824-1954</t>
+  </si>
+  <si>
+    <t>2408 Engineering 3 #949/824-8744</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
     <t>Marcus Seldin</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Mortazavi</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
   </si>
   <si>
     <t>Swarup</t>
   </si>
   <si>
-    <t>Ilhem Messaoudi</t>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Schilling</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Wodarz</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Ranz</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>4111 NatSci 2 #949/824-3086</t>
+  </si>
+  <si>
+    <t>4238 McGaugh Hall #949/824-4346</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Wunderlich</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
   </si>
   <si>
     <t>Siryaporn</t>
   </si>
   <si>
-    <t>Kyoko Yokomori</t>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>4103 NatSci 2 #949/824-8573</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Shen, Jiayi</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
+    <t>Ward, Erica</t>
+  </si>
+  <si>
+    <t>Xiang, Yankai (Mark)</t>
   </si>
   <si>
     <t>Bardwell</t>
   </si>
   <si>
     <t>2208 NatSci 1 #949/824-6902</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Wodarz</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>4103 NatSci 2 #949/824-8573</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Whiteson</t>
-  </si>
-  <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
-  </si>
-  <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
-  </si>
-  <si>
-    <t>Ward, Erica</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Xiang, Yankai (Mark)</t>
   </si>
   <si>
     <t>Xu, Angela</t>
@@ -674,8 +674,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -685,13 +685,16 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -701,16 +704,13 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -718,7 +718,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -726,10 +729,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -748,10 +748,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -759,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -770,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -778,7 +775,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -811,10 +811,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -822,7 +819,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -830,7 +830,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -838,10 +841,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -849,10 +849,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -860,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -868,10 +868,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -879,10 +876,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -890,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -901,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -909,7 +906,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -958,10 +958,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -980,7 +980,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -988,10 +991,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1021,10 +1021,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1032,10 +1029,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1043,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1053,16 +1047,16 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1078,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1095,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1103,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1114,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1125,7 +1119,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1133,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1141,10 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1152,7 +1146,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1160,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1171,10 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1182,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1193,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1201,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1217,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1234,10 +1228,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1245,7 +1239,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1253,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1261,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1269,10 +1266,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1280,7 +1274,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1288,10 +1285,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1299,10 +1293,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1310,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1321,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1332,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1340,7 +1331,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1367,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1381,10 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1392,10 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1403,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1414,10 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1425,10 +1413,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1436,7 +1424,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1444,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1452,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1463,7 +1454,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1471,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1479,10 +1473,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1515,7 +1506,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1523,10 +1517,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1534,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1545,10 +1536,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1556,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1567,10 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1578,7 +1563,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1586,10 +1574,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1597,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1608,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1616,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1624,7 +1609,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1645,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1668,10 +1656,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1679,10 +1664,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1690,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1701,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1712,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1720,7 +1705,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1728,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1736,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1744,7 +1729,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1755,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1763,7 +1748,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1773,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1796,10 +1784,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1807,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1815,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1826,7 +1811,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1834,7 +1819,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1842,10 +1830,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1853,7 +1838,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1861,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1869,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1880,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1891,7 +1879,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1899,7 +1887,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1924,7 +1912,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1935,7 +1923,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1943,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1951,10 +1942,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1962,10 +1953,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1973,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1984,7 +1972,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1992,10 +1983,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2003,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2014,10 +2002,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2025,7 +2010,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2033,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2041,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2051,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2074,10 +2062,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2085,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2093,10 +2078,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2104,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2112,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2120,10 +2105,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2131,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2144,8 +2126,8 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>60</v>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2153,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2164,7 +2146,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2175,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2183,7 +2165,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2190,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2216,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2224,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2235,10 +2220,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2246,7 +2231,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2254,10 +2242,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2265,10 +2250,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2276,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2287,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2295,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2306,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2314,7 +2296,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2322,10 +2307,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2347,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2358,10 +2340,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2369,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2380,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2388,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2399,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2407,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2418,7 +2397,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2426,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2437,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2445,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2453,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2461,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2486,7 +2468,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2497,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2508,7 +2490,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2516,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2524,10 +2509,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2535,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2546,10 +2528,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2557,10 +2536,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2568,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2576,7 +2552,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2584,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2595,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2603,10 +2582,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2628,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2639,7 +2618,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2647,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2658,10 +2640,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2669,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2680,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2688,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2696,7 +2675,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2704,10 +2686,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2715,7 +2694,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2723,10 +2705,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2734,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2742,10 +2724,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2778,7 +2757,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2786,10 +2768,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2797,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2808,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2819,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2830,7 +2809,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2838,10 +2820,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2849,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2857,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2865,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2876,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2884,7 +2863,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2917,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2925,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2933,7 +2912,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2941,7 +2923,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2952,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2963,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2971,10 +2953,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2982,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2993,10 +2975,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3004,7 +2986,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3012,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3020,10 +3002,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3024,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3056,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3064,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3075,10 +3054,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3086,10 +3062,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3097,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3105,10 +3081,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3116,7 +3089,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3124,7 +3100,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3132,10 +3111,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3143,7 +3122,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3151,10 +3133,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3162,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3195,10 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3206,7 +3182,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3214,10 +3193,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3225,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3236,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3247,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3255,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3266,10 +3242,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3277,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3285,7 +3261,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3293,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3301,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3313,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3342,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3350,7 +3332,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3358,10 +3340,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3371,16 +3350,16 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3388,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3399,7 +3378,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3407,10 +3389,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3418,10 +3400,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3429,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3437,10 +3416,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3441,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3473,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3481,7 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3489,7 +3471,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3497,7 +3482,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3505,10 +3493,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3516,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3524,10 +3509,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3535,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3546,7 +3528,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3557,7 +3539,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3568,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3576,10 +3558,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +3580,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3612,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3623,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3631,10 +3610,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3642,7 +3618,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3653,7 +3629,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3661,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3672,7 +3651,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3683,10 +3662,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3694,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3705,10 +3681,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3716,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3724,10 +3697,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3719,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3760,10 +3730,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3771,10 +3738,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3793,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3801,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3809,7 +3773,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3817,7 +3784,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3825,7 +3795,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3836,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3844,10 +3814,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3855,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3863,7 +3833,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3888,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3899,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3907,10 +3877,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3918,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3929,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3937,7 +3904,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3945,7 +3915,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3953,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3964,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3975,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3983,10 +3956,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3994,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4002,10 +3972,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4027,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4038,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4046,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4054,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4065,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4076,7 +4046,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4084,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4092,10 +4065,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4103,7 +4073,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -4114,7 +4084,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4122,10 +4095,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4133,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4141,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4166,7 +4136,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4177,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4185,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4193,10 +4163,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4204,10 +4174,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4215,7 +4185,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4223,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4231,10 +4204,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4242,10 +4212,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4253,10 +4220,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4264,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4275,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4283,7 +4250,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4316,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4324,7 +4294,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4335,7 +4305,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4343,7 +4316,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4354,7 +4327,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4362,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4370,10 +4343,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4381,7 +4354,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4389,7 +4365,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4400,10 +4376,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4411,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4419,10 +4392,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -26,21 +26,20 @@
     <sheet name="Lee,Beoung" sheetId="17" r:id="rId17"/>
     <sheet name="Narain,Vedang" sheetId="18" r:id="rId18"/>
     <sheet name="Nguyen,Nguyen" sheetId="19" r:id="rId19"/>
-    <sheet name="Shen,Jiayi" sheetId="20" r:id="rId20"/>
-    <sheet name="Smith,Sarah" sheetId="21" r:id="rId21"/>
-    <sheet name="Sousa,Rachel" sheetId="22" r:id="rId22"/>
-    <sheet name="Wang,Harold" sheetId="23" r:id="rId23"/>
-    <sheet name="Ward,Erica" sheetId="24" r:id="rId24"/>
-    <sheet name="Xiang,YankaiMark" sheetId="25" r:id="rId25"/>
-    <sheet name="Xu,Angela" sheetId="26" r:id="rId26"/>
-    <sheet name="Zhu,Hongman" sheetId="27" r:id="rId27"/>
+    <sheet name="Smith,Sarah" sheetId="20" r:id="rId20"/>
+    <sheet name="Sousa,Rachel" sheetId="21" r:id="rId21"/>
+    <sheet name="Wang,Harold" sheetId="22" r:id="rId22"/>
+    <sheet name="Ward,Erica" sheetId="23" r:id="rId23"/>
+    <sheet name="Xiang,YankaiMark" sheetId="24" r:id="rId24"/>
+    <sheet name="Xu,Angela" sheetId="25" r:id="rId25"/>
+    <sheet name="Zhu,Hongman" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="112">
   <si>
     <t>Advait, Athreya</t>
   </si>
@@ -84,175 +83,265 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
-    <t>Brody</t>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>Qing Nie</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>440 F Rowland Hall #949/824-1954</t>
+  </si>
+  <si>
+    <t>456 Steinhaus Hall #949/824-9071</t>
+  </si>
+  <si>
+    <t>540F Rowland Hall #949/824-5530</t>
+  </si>
+  <si>
+    <t>314 Sprague Hall #949/824-6765</t>
+  </si>
+  <si>
+    <t>220B Rowland Hall #949/824-2177</t>
+  </si>
+  <si>
+    <t>2218 BioSci 3 #949/824-6762</t>
+  </si>
+  <si>
+    <t>3224 BioSci 3 #949/824-3182</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>3111 NatSci 2 #949/824-2471</t>
+  </si>
+  <si>
+    <t>1107 NatSci 2 #949/824-9942</t>
+  </si>
+  <si>
+    <t>4111 NatSci 2 #949/824-3086</t>
+  </si>
+  <si>
+    <t>2072 AIRB #949/824-2531</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>4103 NatSci 2 #949/824-8573</t>
+  </si>
+  <si>
+    <t>210C Rowland Hall #949/824-5141</t>
+  </si>
+  <si>
+    <t>540 H Rowland Hall #949/824-8456</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>5232 McGaugh Hall #949/302-7325</t>
+  </si>
+  <si>
+    <t>540 G Rowland Hall #949/824-3154</t>
+  </si>
+  <si>
+    <t>2216 BioSci 3 #949/824-3078</t>
+  </si>
+  <si>
+    <t>4092 Bren Hall #949/824-1753</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>3036 Hewitt Hall #949/824-6150</t>
+  </si>
+  <si>
+    <t>3105 NatSci 2 #949/824-8534</t>
+  </si>
+  <si>
+    <t>3102 BioSci 3 #949/824-2244</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>H128 Hitachi Bldg #949/824-8215</t>
+  </si>
+  <si>
+    <t>4238 McGaugh Hall #949/824-4346</t>
+  </si>
+  <si>
+    <t>463 Steinhaus Hall #949/824-2061</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>2408 Engineering 3 #949/824-8744</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>112 Sprague Hall #949/824-2991</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
   </si>
   <si>
     <t>Steven Allison</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Jun Allard</t>
-  </si>
-  <si>
-    <t>Whiteson</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>3108 BioSci 3 #949/824-2341</t>
+  </si>
+  <si>
+    <t>4107 NatSci 2 #949/824-5959</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>4109 NatSci 2 #949/824-2479</t>
+  </si>
+  <si>
+    <t>2418 Engineering 3 #949/824-3211</t>
+  </si>
+  <si>
+    <t>3110 BioSci 3 #949/824-3120</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>2600 BioSci 3 #949/824-1721</t>
+  </si>
+  <si>
+    <t>2208 NatSci 1 #949/824-6902</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>540E Rowland Hall #949/824-5309</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
   </si>
   <si>
     <t>Grace Yuh Chwen Lee</t>
   </si>
   <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Mortazavi</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Swarup</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Schilling</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>Wodarz</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Ranz</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Wunderlich</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Siryaporn</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Qing Nie</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>4103 NatSci 2 #949/824-8573</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
+    <t>5207 McGaugh Hall</t>
   </si>
   <si>
     <t>Narain, Vedang</t>
@@ -261,13 +350,13 @@
     <t>Nguyen, Nguyen</t>
   </si>
   <si>
-    <t>Shen, Jiayi</t>
-  </si>
-  <si>
     <t>Smith, Sarah</t>
   </si>
   <si>
-    <t>Jack Xin</t>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>3236 McGaugh Hall #949/824-9032</t>
   </si>
   <si>
     <t>Sousa, Rachel</t>
@@ -280,12 +369,6 @@
   </si>
   <si>
     <t>Xiang, Yankai (Mark)</t>
-  </si>
-  <si>
-    <t>Bardwell</t>
-  </si>
-  <si>
-    <t>2208 NatSci 1 #949/824-6902</t>
   </si>
   <si>
     <t>Xu, Angela</t>
@@ -675,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -685,9 +768,6 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -696,13 +776,19 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -710,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -718,10 +804,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -729,7 +812,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -737,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -748,7 +834,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -756,10 +845,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -767,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -775,10 +861,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -811,7 +897,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -819,10 +908,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -830,10 +916,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -841,7 +924,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -849,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -860,7 +946,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -868,7 +957,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -876,10 +968,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -887,10 +976,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -898,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -906,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -917,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -950,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -958,10 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -969,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -980,10 +1063,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -991,7 +1074,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -999,10 +1085,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1010,10 +1093,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1021,7 +1104,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1029,7 +1115,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1037,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1045,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1053,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1089,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1097,10 +1186,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1108,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1119,10 +1205,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1130,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1138,7 +1224,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1146,10 +1235,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1157,10 +1243,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1168,7 +1254,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1176,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1187,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1195,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1230,19 +1319,13 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1250,7 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1258,7 +1344,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1266,7 +1355,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1274,10 +1366,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1285,7 +1377,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1293,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1301,10 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1312,10 +1404,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1323,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1331,10 +1423,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1367,10 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1378,7 +1464,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1386,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1394,10 +1483,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1405,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1413,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1424,10 +1510,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1435,7 +1521,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1443,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1454,10 +1543,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1465,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1473,7 +1562,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1584,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1506,10 +1595,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1517,7 +1603,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1525,10 +1614,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1536,7 +1622,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1544,10 +1633,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1555,7 +1644,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1563,10 +1652,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1574,7 +1660,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1582,10 +1671,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1593,7 +1679,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1601,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1609,10 +1698,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1645,10 +1734,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1656,7 +1742,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1664,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1675,10 +1764,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1686,10 +1772,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1697,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1705,7 +1788,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1713,7 +1799,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1721,7 +1810,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1729,10 +1821,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1740,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1748,10 +1840,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1773,7 +1862,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1784,7 +1873,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1792,7 +1884,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1800,10 +1895,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1811,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1819,10 +1914,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1830,7 +1922,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1838,10 +1933,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1849,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1857,10 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1868,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1879,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1887,10 +1979,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1912,7 +2004,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1923,10 +2015,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1934,7 +2023,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1942,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1953,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1961,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1972,10 +2064,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1983,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1991,10 +2080,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2002,7 +2091,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2010,10 +2102,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2021,7 +2110,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2029,7 +2118,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2062,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2070,7 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2078,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2089,7 +2184,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2097,7 +2195,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2105,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2113,10 +2214,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2124,10 +2225,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2135,10 +2233,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2146,10 +2244,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2157,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2165,10 +2263,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2288,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2201,7 +2299,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2209,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2220,10 +2321,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2231,10 +2329,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2242,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2250,7 +2345,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2258,10 +2356,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2269,7 +2364,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2277,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2288,7 +2386,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2296,10 +2397,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2307,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2340,7 +2438,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2348,10 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2359,7 +2457,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2367,10 +2468,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2378,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2386,10 +2487,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2397,10 +2495,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2408,10 +2506,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2419,7 +2517,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2427,7 +2528,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2435,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2443,10 +2547,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2572,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2479,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2490,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2501,7 +2605,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2509,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2517,10 +2624,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2528,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2536,7 +2640,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2544,7 +2651,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2552,10 +2662,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2563,10 +2673,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2574,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2582,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2618,10 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2629,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2640,7 +2744,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2648,10 +2752,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2659,7 +2763,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2667,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2675,10 +2782,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2686,7 +2793,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2694,10 +2804,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2705,10 +2812,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2716,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2724,7 +2828,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2757,10 +2864,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2768,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2776,10 +2883,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2787,10 +2894,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2798,10 +2905,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2809,10 +2913,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2820,7 +2924,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2828,7 +2935,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2836,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2844,10 +2954,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2855,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2863,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2992,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2896,7 +3003,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2904,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2912,10 +3022,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2923,10 +3033,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2934,10 +3041,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2945,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2953,10 +3060,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2964,10 +3071,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2975,10 +3079,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2986,7 +3090,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2994,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3002,7 +3109,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3035,7 +3145,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3043,10 +3156,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3054,7 +3164,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3062,10 +3175,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3073,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3081,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3089,10 +3199,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3100,10 +3210,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3111,10 +3221,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3122,10 +3232,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3133,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3141,7 +3248,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3174,7 +3284,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3182,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3193,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3201,10 +3314,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3212,10 +3322,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3223,7 +3333,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3231,10 +3341,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3242,10 +3352,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3253,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3261,10 +3371,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3272,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3280,146 +3390,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3452,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3460,10 +3431,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3471,10 +3442,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3482,10 +3450,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3493,7 +3461,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3501,7 +3472,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3509,7 +3483,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3517,10 +3491,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3528,10 +3502,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3539,10 +3510,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3550,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3558,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3591,10 +3562,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3602,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3610,7 +3578,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3618,10 +3589,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3629,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3640,10 +3608,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3651,10 +3616,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3662,7 +3627,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3670,10 +3635,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3681,7 +3646,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3689,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3697,7 +3665,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3730,7 +3701,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3740,16 +3714,19 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3757,7 +3734,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3765,7 +3745,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3773,10 +3756,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3784,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3795,10 +3775,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3806,7 +3783,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3814,10 +3791,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3825,7 +3799,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3833,10 +3810,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3858,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3869,7 +3843,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3877,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3885,10 +3862,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3896,7 +3873,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3904,10 +3881,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3915,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3926,10 +3903,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3937,10 +3911,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3948,7 +3919,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3956,7 +3930,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3964,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3972,10 +3949,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +3974,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4008,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4016,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4024,10 +4001,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4035,10 +4012,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4046,10 +4023,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4057,7 +4031,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4065,7 +4042,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4073,10 +4053,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4084,10 +4061,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4095,7 +4072,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4103,7 +4083,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4111,10 +4091,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4147,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4155,7 +4132,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4163,10 +4143,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4174,10 +4151,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4185,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4196,7 +4173,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4204,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4212,7 +4189,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4220,10 +4200,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4231,10 +4211,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4242,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4250,10 +4230,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +4252,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4286,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4294,10 +4271,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4305,10 +4282,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4316,10 +4293,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4327,7 +4304,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4335,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4343,10 +4320,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4354,10 +4331,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4365,10 +4339,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4376,7 +4347,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4384,7 +4358,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4392,7 +4366,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="124">
   <si>
     <t>Advait, Athreya</t>
   </si>
@@ -83,286 +83,322 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
     <t>Jun Allard</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>2218 BioSci 3 #949/824-6762</t>
+  </si>
+  <si>
+    <t>440 F Rowland Hall #949/824-1954</t>
+  </si>
+  <si>
+    <t>314 Sprague Hall #949/824-6765</t>
+  </si>
+  <si>
+    <t>210 E Rowland Hall #949/824-6216</t>
+  </si>
+  <si>
+    <t>3111 NatSci 2 #949/824-2471</t>
+  </si>
+  <si>
+    <t>2216 BioSci 3 #949/824-3078</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>3224 BioSci 3 #949/824-3182</t>
+  </si>
+  <si>
+    <t>2206 BioSci 3 #949/824-4616</t>
+  </si>
+  <si>
+    <t>112 Sprague Hall #949/824-2991</t>
+  </si>
+  <si>
+    <t>3036 Hewitt Hall #949/824-6150</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Medha Pathak</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>4092 Bren Hall #949/824-1753</t>
+  </si>
+  <si>
+    <t>H128 Hitachi Bldg #949/824-8215</t>
+  </si>
+  <si>
+    <t>463 Steinhaus Hall #949/824-2061</t>
+  </si>
+  <si>
+    <t>3026 Gross Hall #949/824-6623</t>
+  </si>
+  <si>
+    <t>5232 McGaugh Hall #949/302-7325</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
+    <t>3110 BioSci 3 #949/824-3120</t>
+  </si>
+  <si>
+    <t>4103 NatSci 2 #949/824-8573</t>
+  </si>
+  <si>
+    <t>2408 Engineering 3 #949/824-8744</t>
+  </si>
+  <si>
+    <t>220B Rowland Hall #949/824-2177</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>3108 BioSci 3 #949/824-2341</t>
+  </si>
+  <si>
+    <t>3105 NatSci 2 #949/824-8534</t>
+  </si>
+  <si>
+    <t>2208 NatSci 1 #949/824-6902</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>1107 NatSci 2 #949/824-9942</t>
+  </si>
+  <si>
+    <t>4109 NatSci 2 #949/824-2479</t>
+  </si>
+  <si>
+    <t>540 H Rowland Hall #949/824-8456</t>
+  </si>
+  <si>
+    <t>2072 AIRB #949/824-2531</t>
+  </si>
+  <si>
+    <t>540 G Rowland Hall #949/824-3154</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
   </si>
   <si>
     <t>Jose Ranz</t>
   </si>
   <si>
+    <t>456 Steinhaus Hall #949/824-9071</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Marian Waterman</t>
+  </si>
+  <si>
+    <t>4238 McGaugh Hall #949/824-4346</t>
+  </si>
+  <si>
+    <t>224 Sprague Hall #949/824-2885</t>
+  </si>
+  <si>
+    <t>Evensen, Claire</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
+  </si>
+  <si>
+    <t>3102 BioSci 3 #949/824-2244</t>
+  </si>
+  <si>
+    <t>3236 McGaugh Hall #949/824-9032</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>Kavita Arora</t>
+  </si>
+  <si>
+    <t>2600 BioSci 3 #949/824-1721</t>
+  </si>
+  <si>
+    <t>210C Rowland Hall #949/824-5141</t>
+  </si>
+  <si>
+    <t>4215 McGaugh Hall #949/824-1087</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>4107 NatSci 2 #949/824-5959</t>
+  </si>
+  <si>
+    <t>4111 NatSci 2 #949/824-3086</t>
+  </si>
+  <si>
+    <t>2418 Engineering 3 #949/824-3211</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
+  </si>
+  <si>
+    <t>540E Rowland Hall #949/824-5309</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Kevin Thornton</t>
+  </si>
+  <si>
+    <t>5221 McGaugh Hall #949/824-0614</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>5207 McGaugh Hall #949/824-6039</t>
+  </si>
+  <si>
+    <t>Lee, Beoung</t>
+  </si>
+  <si>
+    <t>Narain, Vedang</t>
+  </si>
+  <si>
+    <t>Nguyen, Nguyen</t>
+  </si>
+  <si>
+    <t>Smith, Sarah</t>
+  </si>
+  <si>
+    <t>Sousa, Rachel</t>
+  </si>
+  <si>
+    <t>Wang, Harold</t>
+  </si>
+  <si>
     <t>Qing Nie</t>
   </si>
   <si>
-    <t>Marcus Seldin</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>Ali Mortazavi</t>
-  </si>
-  <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>456 Steinhaus Hall #949/824-9071</t>
-  </si>
-  <si>
     <t>540F Rowland Hall #949/824-5530</t>
-  </si>
-  <si>
-    <t>314 Sprague Hall #949/824-6765</t>
-  </si>
-  <si>
-    <t>220B Rowland Hall #949/824-2177</t>
-  </si>
-  <si>
-    <t>2218 BioSci 3 #949/824-6762</t>
-  </si>
-  <si>
-    <t>3224 BioSci 3 #949/824-3182</t>
-  </si>
-  <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>James Brody</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
-  </si>
-  <si>
-    <t>1107 NatSci 2 #949/824-9942</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
-  </si>
-  <si>
-    <t>2072 AIRB #949/824-2531</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Albert Siryaporn</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>4103 NatSci 2 #949/824-8573</t>
-  </si>
-  <si>
-    <t>210C Rowland Hall #949/824-5141</t>
-  </si>
-  <si>
-    <t>540 H Rowland Hall #949/824-8456</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>Ilhem Messaoudi</t>
-  </si>
-  <si>
-    <t>Wayne Hayes</t>
-  </si>
-  <si>
-    <t>5232 McGaugh Hall #949/302-7325</t>
-  </si>
-  <si>
-    <t>540 G Rowland Hall #949/824-3154</t>
-  </si>
-  <si>
-    <t>2216 BioSci 3 #949/824-3078</t>
-  </si>
-  <si>
-    <t>4092 Bren Hall #949/824-1753</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Steve Frank</t>
-  </si>
-  <si>
-    <t>3036 Hewitt Hall #949/824-6150</t>
-  </si>
-  <si>
-    <t>3105 NatSci 2 #949/824-8534</t>
-  </si>
-  <si>
-    <t>3102 BioSci 3 #949/824-2244</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>H128 Hitachi Bldg #949/824-8215</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>463 Steinhaus Hall #949/824-2061</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>112 Sprague Hall #949/824-2991</t>
-  </si>
-  <si>
-    <t>Evensen, Claire</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Zeba Wunderlich</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>4107 NatSci 2 #949/824-5959</t>
-  </si>
-  <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>4109 NatSci 2 #949/824-2479</t>
-  </si>
-  <si>
-    <t>2418 Engineering 3 #949/824-3211</t>
-  </si>
-  <si>
-    <t>3110 BioSci 3 #949/824-3120</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Lee Bardwell</t>
-  </si>
-  <si>
-    <t>2600 BioSci 3 #949/824-1721</t>
-  </si>
-  <si>
-    <t>2208 NatSci 1 #949/824-6902</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>540E Rowland Hall #949/824-5309</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Lee, Beoung</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>5207 McGaugh Hall</t>
-  </si>
-  <si>
-    <t>Narain, Vedang</t>
-  </si>
-  <si>
-    <t>Nguyen, Nguyen</t>
-  </si>
-  <si>
-    <t>Smith, Sarah</t>
-  </si>
-  <si>
-    <t>Katrine Whiteson</t>
-  </si>
-  <si>
-    <t>3236 McGaugh Hall #949/824-9032</t>
-  </si>
-  <si>
-    <t>Sousa, Rachel</t>
-  </si>
-  <si>
-    <t>Wang, Harold</t>
   </si>
   <si>
     <t>Ward, Erica</t>
@@ -757,16 +793,13 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -774,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -785,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -796,7 +829,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -804,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -815,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -826,7 +862,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -834,10 +870,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -845,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -853,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -861,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -897,10 +930,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -908,7 +938,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -916,7 +949,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -924,10 +960,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -935,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -946,10 +979,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -957,10 +987,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -968,7 +995,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -976,7 +1006,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -984,7 +1017,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -992,10 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1003,7 +1036,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1036,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1044,7 +1080,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1052,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1063,10 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1074,10 +1110,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1085,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1093,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1104,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1115,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1126,7 +1159,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1134,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1142,10 +1178,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1203,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1178,7 +1214,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1186,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1194,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1205,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1216,7 +1252,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1224,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1235,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1243,10 +1282,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1256,19 +1295,16 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1276,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1284,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1317,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1325,7 +1361,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1333,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1344,10 +1383,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1355,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1366,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1377,10 +1416,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1388,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1396,7 +1432,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1404,10 +1443,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1415,7 +1451,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1423,7 +1459,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1456,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1464,10 +1503,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1475,7 +1514,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1483,7 +1525,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1491,7 +1536,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1499,10 +1547,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1510,10 +1555,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1521,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1532,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1543,10 +1588,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1554,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1562,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1595,7 +1640,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1603,10 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1614,7 +1659,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1622,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1633,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1652,7 +1700,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1660,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1671,7 +1719,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1679,10 +1730,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1690,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1698,10 +1749,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1734,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1742,10 +1790,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1753,10 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1764,7 +1806,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1772,7 +1817,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1780,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1788,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1799,10 +1847,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1810,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1821,10 +1869,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1832,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1841,6 +1889,9 @@
       </c>
       <c r="B13" t="s">
         <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1913,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1873,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1884,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1895,10 +1946,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1906,7 +1954,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1914,7 +1965,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1922,10 +1976,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1933,10 +1987,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1944,7 +1998,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1954,16 +2011,19 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1971,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1979,10 +2039,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2015,7 +2072,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2023,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2034,10 +2094,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2045,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2053,10 +2113,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2064,7 +2124,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2072,7 +2135,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2080,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2091,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2102,7 +2168,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2110,7 +2179,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2118,10 +2187,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2154,7 +2220,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2162,10 +2231,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2173,10 +2242,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2184,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2195,10 +2264,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2206,7 +2275,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2214,10 +2286,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2225,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2233,10 +2302,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2244,10 +2310,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2255,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2263,10 +2326,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2348,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2299,10 +2359,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2310,10 +2370,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2321,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2329,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2337,7 +2394,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2345,10 +2405,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2356,7 +2416,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2364,10 +2424,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2375,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2386,10 +2446,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2397,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2405,7 +2465,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2438,10 +2501,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2449,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2457,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2468,10 +2531,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2479,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2487,7 +2550,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2495,10 +2561,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2506,10 +2572,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2517,10 +2583,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2528,10 +2594,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2539,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2547,10 +2610,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2635,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2583,10 +2646,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2594,10 +2657,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2605,10 +2668,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2616,7 +2679,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2624,7 +2690,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2632,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2640,10 +2706,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2651,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2662,10 +2725,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2673,7 +2733,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2681,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2689,10 +2752,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2777,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2725,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2733,10 +2796,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2744,7 +2807,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2752,10 +2818,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2763,10 +2826,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2774,7 +2837,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2782,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2793,10 +2859,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2804,7 +2870,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2812,7 +2878,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2820,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2828,10 +2897,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2922,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2864,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2875,7 +2944,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2883,10 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2894,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -2905,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2913,10 +2982,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2924,10 +2990,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2935,10 +3001,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2946,7 +3012,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2954,7 +3023,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2962,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2970,7 +3042,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3067,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3003,10 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3014,7 +3086,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3022,10 +3097,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3033,7 +3108,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3041,10 +3119,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3052,7 +3127,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3060,10 +3135,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3071,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3079,10 +3154,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3090,10 +3165,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3101,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3109,10 +3184,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3145,10 +3217,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3156,7 +3228,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3164,10 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3175,7 +3247,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3183,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3191,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3199,10 +3274,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3210,10 +3285,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3221,10 +3293,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3232,7 +3304,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3240,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3248,10 +3323,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3348,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3284,10 +3359,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3295,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3306,7 +3378,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3314,7 +3389,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3322,10 +3400,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3333,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3344,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3352,10 +3427,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3363,7 +3438,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3371,10 +3449,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3382,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3390,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3423,7 +3501,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3433,16 +3514,16 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3450,10 +3531,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3461,10 +3542,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3472,10 +3550,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3483,7 +3558,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3491,10 +3569,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3502,7 +3580,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3513,7 +3594,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3521,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3529,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +3632,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3562,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3570,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3578,10 +3659,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3589,7 +3670,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3597,10 +3681,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3608,7 +3689,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3616,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3627,7 +3708,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3635,10 +3719,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3646,10 +3730,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3657,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3665,10 +3749,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3771,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3701,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3712,10 +3793,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3723,10 +3801,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3734,10 +3812,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3745,10 +3823,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3756,7 +3831,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3764,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3775,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3783,7 +3861,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3791,7 +3872,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3799,10 +3883,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3810,7 +3891,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3843,10 +3927,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3854,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3862,10 +3946,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3873,7 +3954,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3881,10 +3962,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3892,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3903,7 +3981,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3911,7 +3992,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3919,10 +4003,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3930,10 +4014,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3941,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3949,10 +4033,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3985,7 +4066,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3993,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4001,10 +4082,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4012,10 +4090,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4023,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4042,10 +4120,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4053,7 +4131,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4072,10 +4153,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4083,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4091,7 +4172,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4113,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4124,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4132,10 +4216,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4143,7 +4224,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4151,10 +4235,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4162,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4173,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4181,7 +4265,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4189,10 +4276,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4200,10 +4287,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4211,10 +4298,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4222,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4230,7 +4317,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4339,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4263,7 +4350,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4271,10 +4361,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4282,10 +4372,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4293,10 +4380,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4304,7 +4388,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4312,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4320,10 +4407,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4331,7 +4418,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4339,7 +4429,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4347,10 +4440,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4358,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4366,10 +4456,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
+++ b/Real2020Entry1/fromBot_StudentSchedules_1SheetEach.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="124">
   <si>
     <t>Advait, Athreya</t>
   </si>
@@ -83,208 +83,238 @@
     <t>Tuesday, Feb. 11 3:45 - 4:15</t>
   </si>
   <si>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Jun Allard</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Devon Lawson</t>
+  </si>
+  <si>
+    <t>3036 Hewitt Hall #949/824-6150</t>
+  </si>
+  <si>
+    <t>3111 NatSci 2 #949/824-2471</t>
+  </si>
+  <si>
+    <t>1107 NatSci 2 #949/824-9942</t>
+  </si>
+  <si>
+    <t>440 F Rowland Hall #949/824-1954</t>
+  </si>
+  <si>
+    <t>220B Rowland Hall #949/824-2177</t>
+  </si>
+  <si>
+    <t>210 E Rowland Hall #949/824-6216</t>
+  </si>
+  <si>
+    <t>5232 McGaugh Hall #949/302-7325</t>
+  </si>
+  <si>
+    <t>112 Sprague Hall #949/824-2991</t>
+  </si>
+  <si>
+    <t>Bartas, Katrina</t>
+  </si>
+  <si>
+    <t>Dominik Wodarz</t>
+  </si>
+  <si>
     <t>Ali Mortazavi</t>
   </si>
   <si>
-    <t>Jun Allard</t>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
+  </si>
+  <si>
+    <t>Anne Calof</t>
+  </si>
+  <si>
+    <t>Kyoko Yokomori</t>
+  </si>
+  <si>
+    <t>Lee Bardwell</t>
+  </si>
+  <si>
+    <t>2072 AIRB #949/824-2531</t>
+  </si>
+  <si>
+    <t>2218 BioSci 3 #949/824-6762</t>
+  </si>
+  <si>
+    <t>4107 NatSci 2 #949/824-5959</t>
+  </si>
+  <si>
+    <t>3105 NatSci 2 #949/824-8534</t>
+  </si>
+  <si>
+    <t>2206 BioSci 3 #949/824-4616</t>
+  </si>
+  <si>
+    <t>H128 Hitachi Bldg #949/824-8215</t>
+  </si>
+  <si>
+    <t>2208 NatSci 1 #949/824-6902</t>
+  </si>
+  <si>
+    <t>Corrette, John</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>Bruce Blumberg</t>
+  </si>
+  <si>
+    <t>Medha Pathak</t>
   </si>
   <si>
     <t>Marcus Seldin</t>
   </si>
   <si>
-    <t>Clare Yu</t>
-  </si>
-  <si>
-    <t>James Brody</t>
+    <t>456 Steinhaus Hall #949/824-9071</t>
+  </si>
+  <si>
+    <t>4103 NatSci 2 #949/824-8573</t>
+  </si>
+  <si>
+    <t>3026 Gross Hall #949/824-6623</t>
+  </si>
+  <si>
+    <t>314 Sprague Hall #949/824-6765</t>
+  </si>
+  <si>
+    <t>Czarnecki, Paulina</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Scott Atwood</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
+  </si>
+  <si>
+    <t>3108 BioSci 3 #949/824-2341</t>
+  </si>
+  <si>
+    <t>463 Steinhaus Hall #949/824-2061</t>
+  </si>
+  <si>
+    <t>4238 McGaugh Hall #949/824-4346</t>
+  </si>
+  <si>
+    <t>2408 Engineering 3 #949/824-8744</t>
+  </si>
+  <si>
+    <t>Degan, Alexandra</t>
+  </si>
+  <si>
+    <t>Dae Seok Eom</t>
+  </si>
+  <si>
+    <t>Vivek Swarup</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
+  </si>
+  <si>
+    <t>4111 NatSci 2 #949/824-3086</t>
+  </si>
+  <si>
+    <t>3224 BioSci 3 #949/824-3182</t>
+  </si>
+  <si>
+    <t>540 G Rowland Hall #949/824-3154</t>
+  </si>
+  <si>
+    <t>Du, Mingyu</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
   </si>
   <si>
     <t>Ilhem Messaoudi</t>
   </si>
   <si>
-    <t>2218 BioSci 3 #949/824-6762</t>
-  </si>
-  <si>
-    <t>440 F Rowland Hall #949/824-1954</t>
-  </si>
-  <si>
-    <t>314 Sprague Hall #949/824-6765</t>
-  </si>
-  <si>
-    <t>210 E Rowland Hall #949/824-6216</t>
-  </si>
-  <si>
-    <t>3111 NatSci 2 #949/824-2471</t>
+    <t>Alejandra Verdugo</t>
+  </si>
+  <si>
+    <t>Albert Siryaporn</t>
+  </si>
+  <si>
+    <t>540E Rowland Hall #949/824-5309</t>
   </si>
   <si>
     <t>2216 BioSci 3 #949/824-3078</t>
   </si>
   <si>
-    <t>Bartas, Katrina</t>
-  </si>
-  <si>
-    <t>Vivek Swarup</t>
-  </si>
-  <si>
-    <t>Anne Calof</t>
-  </si>
-  <si>
-    <t>Devon Lawson</t>
-  </si>
-  <si>
-    <t>Armando Villalta</t>
-  </si>
-  <si>
-    <t>3224 BioSci 3 #949/824-3182</t>
-  </si>
-  <si>
-    <t>2206 BioSci 3 #949/824-4616</t>
-  </si>
-  <si>
-    <t>112 Sprague Hall #949/824-2991</t>
-  </si>
-  <si>
-    <t>3036 Hewitt Hall #949/824-6150</t>
-  </si>
-  <si>
-    <t>Corrette, John</t>
+    <t>3110 BioSci 3 #949/824-3120</t>
+  </si>
+  <si>
+    <t>210C Rowland Hall #949/824-5141</t>
+  </si>
+  <si>
+    <t>Ermoshkin, Maxim</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>John Lowengrub</t>
+  </si>
+  <si>
+    <t>4109 NatSci 2 #949/824-2479</t>
+  </si>
+  <si>
+    <t>540 H Rowland Hall #949/824-8456</t>
+  </si>
+  <si>
+    <t>Esquival, Emmanual</t>
+  </si>
+  <si>
+    <t>Marian Waterman</t>
   </si>
   <si>
     <t>Wayne Hayes</t>
   </si>
   <si>
-    <t>Kyoko Yokomori</t>
-  </si>
-  <si>
-    <t>Celia Faiola</t>
-  </si>
-  <si>
-    <t>Medha Pathak</t>
-  </si>
-  <si>
-    <t>Matt McHenry</t>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>224 Sprague Hall #949/824-2885</t>
   </si>
   <si>
     <t>4092 Bren Hall #949/824-1753</t>
   </si>
   <si>
-    <t>H128 Hitachi Bldg #949/824-8215</t>
-  </si>
-  <si>
-    <t>463 Steinhaus Hall #949/824-2061</t>
-  </si>
-  <si>
-    <t>3026 Gross Hall #949/824-6623</t>
-  </si>
-  <si>
-    <t>5232 McGaugh Hall #949/302-7325</t>
-  </si>
-  <si>
-    <t>Czarnecki, Paulina</t>
-  </si>
-  <si>
-    <t>Alejandra Verdugo</t>
-  </si>
-  <si>
-    <t>Bruce Blumberg</t>
-  </si>
-  <si>
-    <t>Tim Downing</t>
-  </si>
-  <si>
-    <t>Jin Yu</t>
-  </si>
-  <si>
-    <t>3110 BioSci 3 #949/824-3120</t>
-  </si>
-  <si>
-    <t>4103 NatSci 2 #949/824-8573</t>
-  </si>
-  <si>
-    <t>2408 Engineering 3 #949/824-8744</t>
-  </si>
-  <si>
-    <t>220B Rowland Hall #949/824-2177</t>
-  </si>
-  <si>
-    <t>Degan, Alexandra</t>
-  </si>
-  <si>
-    <t>Steven Allison</t>
-  </si>
-  <si>
-    <t>Chang Liu</t>
-  </si>
-  <si>
-    <t>Lee Bardwell</t>
-  </si>
-  <si>
-    <t>3108 BioSci 3 #949/824-2341</t>
-  </si>
-  <si>
-    <t>3105 NatSci 2 #949/824-8534</t>
-  </si>
-  <si>
-    <t>2208 NatSci 1 #949/824-6902</t>
-  </si>
-  <si>
-    <t>Du, Mingyu</t>
-  </si>
-  <si>
-    <t>Eric Potma</t>
-  </si>
-  <si>
-    <t>Thomas Schilling</t>
-  </si>
-  <si>
-    <t>John Lowengrub</t>
-  </si>
-  <si>
-    <t>Dominik Wodarz</t>
-  </si>
-  <si>
-    <t>Knut Solna</t>
-  </si>
-  <si>
-    <t>1107 NatSci 2 #949/824-9942</t>
-  </si>
-  <si>
-    <t>4109 NatSci 2 #949/824-2479</t>
-  </si>
-  <si>
-    <t>540 H Rowland Hall #949/824-8456</t>
-  </si>
-  <si>
-    <t>2072 AIRB #949/824-2531</t>
-  </si>
-  <si>
-    <t>540 G Rowland Hall #949/824-3154</t>
-  </si>
-  <si>
-    <t>Ermoshkin, Maxim</t>
-  </si>
-  <si>
-    <t>Jose Ranz</t>
-  </si>
-  <si>
-    <t>456 Steinhaus Hall #949/824-9071</t>
-  </si>
-  <si>
-    <t>Esquival, Emmanual</t>
-  </si>
-  <si>
-    <t>Scott Atwood</t>
-  </si>
-  <si>
-    <t>Marian Waterman</t>
-  </si>
-  <si>
-    <t>4238 McGaugh Hall #949/824-4346</t>
-  </si>
-  <si>
-    <t>224 Sprague Hall #949/824-2885</t>
+    <t>5207 McGaugh Hall #949/824-6039</t>
   </si>
   <si>
     <t>Evensen, Claire</t>
@@ -293,88 +323,58 @@
     <t>Steve Frank</t>
   </si>
   <si>
+    <t>Kavita Arora</t>
+  </si>
+  <si>
+    <t>3102 BioSci 3 #949/824-2244</t>
+  </si>
+  <si>
+    <t>4215 McGaugh Hall #949/824-1087</t>
+  </si>
+  <si>
+    <t>Heid, Leslie</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>2600 BioSci 3 #949/824-1721</t>
+  </si>
+  <si>
+    <t>Herath, Samantha</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>2418 Engineering 3 #949/824-3211</t>
+  </si>
+  <si>
+    <t>Hussein, Amina</t>
+  </si>
+  <si>
+    <t>Hwang, Ahyeon</t>
+  </si>
+  <si>
+    <t>Jan, Tzu-Yi (Ian)</t>
+  </si>
+  <si>
     <t>Katrine Whiteson</t>
   </si>
   <si>
-    <t>3102 BioSci 3 #949/824-2244</t>
-  </si>
-  <si>
     <t>3236 McGaugh Hall #949/824-9032</t>
   </si>
   <si>
-    <t>Heid, Leslie</t>
-  </si>
-  <si>
-    <t>Arthur Lander</t>
-  </si>
-  <si>
-    <t>Albert Siryaporn</t>
-  </si>
-  <si>
-    <t>Kavita Arora</t>
-  </si>
-  <si>
-    <t>2600 BioSci 3 #949/824-1721</t>
-  </si>
-  <si>
-    <t>210C Rowland Hall #949/824-5141</t>
-  </si>
-  <si>
-    <t>4215 McGaugh Hall #949/824-1087</t>
-  </si>
-  <si>
-    <t>Herath, Samantha</t>
-  </si>
-  <si>
-    <t>Zeba Wunderlich</t>
-  </si>
-  <si>
-    <t>Dae Seok Eom</t>
-  </si>
-  <si>
-    <t>Anya Grosberg</t>
-  </si>
-  <si>
-    <t>4107 NatSci 2 #949/824-5959</t>
-  </si>
-  <si>
-    <t>4111 NatSci 2 #949/824-3086</t>
-  </si>
-  <si>
-    <t>2418 Engineering 3 #949/824-3211</t>
-  </si>
-  <si>
-    <t>Hussein, Amina</t>
-  </si>
-  <si>
-    <t>Jack Xin</t>
-  </si>
-  <si>
-    <t>540E Rowland Hall #949/824-5309</t>
-  </si>
-  <si>
-    <t>Hwang, Ahyeon</t>
+    <t>Khattab, Sara</t>
+  </si>
+  <si>
+    <t>Kramer, Alexander</t>
   </si>
   <si>
     <t>Kevin Thornton</t>
   </si>
   <si>
     <t>5221 McGaugh Hall #949/824-0614</t>
-  </si>
-  <si>
-    <t>Jan, Tzu-Yi (Ian)</t>
-  </si>
-  <si>
-    <t>Khattab, Sara</t>
-  </si>
-  <si>
-    <t>Kramer, Alexander</t>
-  </si>
-  <si>
-    <t>Grace Yuh Chwen Lee</t>
-  </si>
-  <si>
-    <t>5207 McGaugh Hall #949/824-6039</t>
   </si>
   <si>
     <t>Lee, Beoung</t>
@@ -793,13 +793,19 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -807,10 +813,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -818,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -829,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -840,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -848,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -859,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -870,7 +876,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -878,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -886,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -894,10 +903,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -930,7 +936,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -938,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -949,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -960,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -971,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -979,7 +988,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -987,7 +999,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -995,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1006,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1017,10 +1032,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1028,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1036,10 +1051,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1072,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1080,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1091,10 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1102,7 +1111,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1110,7 +1122,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1118,7 +1133,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1126,10 +1144,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1137,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1148,10 +1163,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1159,10 +1174,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1170,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1178,10 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1214,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1224,16 +1233,19 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1241,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1252,10 +1264,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1263,10 +1272,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1274,7 +1280,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1282,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1293,7 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1301,10 +1313,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1312,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1320,7 +1332,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1361,10 +1376,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1372,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1383,10 +1398,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1394,10 +1409,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1405,10 +1420,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1418,13 +1430,19 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1432,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1443,7 +1461,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1451,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1459,10 +1480,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1505,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1495,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1503,10 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1514,10 +1532,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1525,10 +1540,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1536,10 +1551,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1547,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1555,10 +1567,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1566,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1577,10 +1589,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1588,10 +1600,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1599,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1607,7 +1619,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1640,10 +1655,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1651,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1659,10 +1674,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1670,10 +1682,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1681,10 +1693,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1692,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1700,7 +1712,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1708,10 +1723,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1719,10 +1731,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1730,10 +1742,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1741,7 +1750,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1749,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1790,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1798,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1809,7 +1821,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1817,10 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1828,7 +1837,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1836,10 +1848,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1858,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1869,10 +1881,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1880,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1888,10 +1900,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1935,10 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1946,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1954,10 +1957,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1965,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1976,10 +1979,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1987,10 +1987,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1998,10 +1998,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2009,10 +2009,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2020,10 +2020,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2039,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2072,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2083,10 +2083,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2094,10 +2091,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2105,7 +2102,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2113,10 +2113,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2124,10 +2124,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2135,10 +2132,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2146,10 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2157,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2168,10 +2162,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2179,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2187,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2220,10 +2214,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2231,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2242,10 +2236,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2253,10 +2247,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2264,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2275,10 +2269,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2286,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2294,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2302,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2310,7 +2304,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2318,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2326,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +2342,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2359,10 +2353,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2370,7 +2361,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2378,7 +2372,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2386,7 +2383,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2394,10 +2394,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2405,10 +2402,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2416,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2424,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2435,10 +2432,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2446,10 +2440,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2457,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2465,10 +2459,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2501,10 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2512,7 +2503,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2520,10 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2531,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2542,7 +2533,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2550,10 +2544,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2561,10 +2555,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2572,10 +2566,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2583,10 +2577,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2594,7 +2585,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2602,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2610,10 +2604,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2646,10 +2637,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2657,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2668,10 +2656,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2679,10 +2667,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2690,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2700,13 +2685,19 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2714,10 +2705,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2725,7 +2716,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2733,10 +2727,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2744,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2752,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -2788,7 +2782,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2796,10 +2793,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2807,10 +2804,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2818,7 +2812,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2826,10 +2823,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2837,10 +2834,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2848,10 +2842,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2859,10 +2850,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2870,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2878,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2889,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2897,10 +2888,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2933,10 +2921,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2944,10 +2932,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2955,7 +2940,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2963,10 +2951,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2974,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2982,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2990,10 +2978,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3001,10 +2986,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3012,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3023,10 +3008,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3034,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3042,10 +3024,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3088,19 +3070,16 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3108,10 +3087,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3119,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3127,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3135,10 +3111,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3146,7 +3122,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3154,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3165,10 +3144,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3176,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3184,7 +3163,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3217,10 +3199,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3228,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3239,7 +3221,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3247,10 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3258,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3266,7 +3248,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3274,10 +3259,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3285,7 +3270,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3293,10 +3281,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3304,10 +3292,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3315,7 +3303,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3323,10 +3311,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +3347,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3367,10 +3358,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3378,10 +3369,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3389,10 +3377,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3402,13 +3387,16 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3416,10 +3404,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3427,10 +3415,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3438,10 +3423,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3449,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3460,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3468,7 +3450,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3475,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3501,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3512,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3520,10 +3505,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3531,10 +3516,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3542,7 +3527,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3550,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3558,10 +3543,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3569,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3580,10 +3565,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3591,10 +3576,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3602,7 +3587,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3610,7 +3595,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3643,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3651,7 +3639,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3659,10 +3650,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3670,10 +3661,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3681,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3689,7 +3677,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3697,10 +3685,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3708,10 +3696,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3719,10 +3707,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3730,10 +3718,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3741,7 +3729,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3749,7 +3737,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +3762,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3782,10 +3773,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3793,7 +3784,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3801,10 +3795,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3812,10 +3806,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3823,7 +3814,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3831,10 +3825,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3842,10 +3833,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3853,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3861,10 +3852,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3872,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3883,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3891,10 +3882,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3927,10 +3915,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3938,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3946,7 +3931,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3954,7 +3942,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3962,7 +3953,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3970,10 +3961,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3981,10 +3969,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3992,10 +3980,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4003,10 +3991,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4014,10 +4002,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4025,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4033,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +4043,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4066,7 +4054,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4074,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4082,7 +4073,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4090,10 +4084,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4101,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4109,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4120,10 +4114,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4131,10 +4125,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4142,10 +4136,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4153,10 +4147,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4164,7 +4158,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4172,10 +4166,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4188,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4208,7 +4199,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4216,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4224,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4235,10 +4229,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4246,10 +4240,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4257,7 +4251,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4265,10 +4259,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4276,10 +4270,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4287,10 +4281,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4298,10 +4292,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4309,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4317,7 +4311,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4336,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4350,10 +4347,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4361,10 +4355,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4372,7 +4363,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4380,7 +4374,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4388,10 +4385,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4399,7 +4393,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4407,10 +4404,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4418,10 +4415,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4429,10 +4426,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4440,7 +4437,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4448,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4456,10 +4456,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
